--- a/static/download/2018/RP2_ERT_SU_2018_Jan_Dec.xlsx
+++ b/static/download/2018/RP2_ERT_SU_2018_Jan_Dec.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ERT_SU_CZ" sheetId="1" r:id="rId3"/>
@@ -12,105 +12,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+  <si>
+    <t>Change date</t>
+  </si>
   <si>
     <t>Data source</t>
   </si>
   <si>
-    <t>Change date</t>
+    <t>Entity</t>
   </si>
   <si>
     <t>EUROCONTROL</t>
   </si>
   <si>
-    <t>Entity</t>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>Period Start</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>Meta data</t>
   </si>
   <si>
+    <t>Update Q4</t>
+  </si>
+  <si>
+    <t>Actual 2016 SU</t>
+  </si>
+  <si>
+    <t>Update SU with situation at 15/03/2017</t>
+  </si>
+  <si>
+    <t>Estonia, Hungary, United Kingdom</t>
+  </si>
+  <si>
+    <t>Actual en-route service units slightly modified to align with CRCO data</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Update Q4</t>
-  </si>
-  <si>
     <t>Release date</t>
   </si>
   <si>
-    <t>Actual 2016 SU</t>
-  </si>
-  <si>
-    <t>Update SU with situation at 15/03/2017</t>
-  </si>
-  <si>
-    <t>Estonia, Hungary, United Kingdom</t>
-  </si>
-  <si>
-    <t>Actual en-route service units slightly modified to align with CRCO data</t>
+    <t>Update Q1</t>
   </si>
   <si>
     <t>Period End</t>
   </si>
   <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
     <t>31 Dec. 2018</t>
   </si>
   <si>
-    <t>Update Q1</t>
+    <t>Update Q2</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Update Q3</t>
+  </si>
+  <si>
+    <t>15 Mar. 2018</t>
+  </si>
+  <si>
+    <t>Full year update</t>
+  </si>
+  <si>
     <t>NSA-PRU-Support@eurocontrol.int</t>
   </si>
   <si>
-    <t>Q2 2017</t>
-  </si>
-  <si>
-    <t>Update Q2</t>
+    <t>data update</t>
+  </si>
+  <si>
+    <t>14 Dec. 2018</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
   </si>
   <si>
-    <t>Q3 2017</t>
-  </si>
-  <si>
-    <t>Update Q3</t>
-  </si>
-  <si>
-    <t>15 Mar. 2018</t>
-  </si>
-  <si>
-    <t>Full year update</t>
-  </si>
-  <si>
     <t>SOURCE: CRCO</t>
   </si>
   <si>
-    <t>data update</t>
-  </si>
-  <si>
-    <t>14 Dec. 2018</t>
+    <t>data update with full 2018</t>
+  </si>
+  <si>
+    <t>Germany, Hungary</t>
+  </si>
+  <si>
+    <t>actual revised</t>
+  </si>
+  <si>
+    <t>Portugal, Romania</t>
+  </si>
+  <si>
+    <t>Determined revised</t>
   </si>
   <si>
     <t>En-route service units</t>
-  </si>
-  <si>
-    <t>data update with full 2018</t>
   </si>
   <si>
     <t>Actual [2017]</t>
@@ -237,25 +249,25 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm yyyy"/>
+    <numFmt numFmtId="166" formatCode="mmm yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -317,6 +329,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -327,14 +344,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -353,12 +370,6 @@
   <borders count="10">
     <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -370,12 +381,18 @@
       </top>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
     </border>
     <border>
       <left/>
       <right/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <right/>
@@ -421,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -431,133 +448,136 @@
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="9" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -569,15 +589,15 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -598,123 +618,123 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="7">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8">
         <v>42736.0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="F1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43514.0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="19">
+        <v>43560.0</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="E2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="34">
+      <c r="A4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="37">
         <v>365.0</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34">
+      <c r="D4" s="39"/>
+      <c r="E4" s="37">
         <v>365.0</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="34">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="37">
         <v>365.0</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>40</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="43">
         <f>sum(B7:B36)</f>
-        <v>126926604</v>
+        <v>126856192.2</v>
       </c>
       <c r="C6" s="43">
         <f t="shared" ref="C6:C36" si="1">B6/C$4</f>
-        <v>347744.1205</v>
+        <v>347551.2115</v>
       </c>
       <c r="D6" s="43">
         <f>sum(D7:D36)</f>
@@ -726,24 +746,24 @@
       </c>
       <c r="F6" s="44">
         <f t="shared" ref="F6:F36" si="3">E6/C6-1</f>
-        <v>0.05585698172</v>
+        <v>0.05644303739</v>
       </c>
       <c r="G6" s="43">
         <f>sum(G7:G36)</f>
-        <v>120642948</v>
+        <v>122148732</v>
       </c>
       <c r="H6" s="43">
         <f t="shared" ref="H6:H36" si="4">G6/H$4</f>
-        <v>330528.6247</v>
+        <v>334654.0603</v>
       </c>
       <c r="I6" s="44">
         <f t="shared" ref="I6:I36" si="5">D6/G6-1</f>
-        <v>0.110851013</v>
+        <v>0.09715703803</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" s="45">
         <v>2973819.0</v>
@@ -777,14 +797,14 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="45">
-        <v>2593652.0</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="46">
+        <v>2593651.6</v>
       </c>
       <c r="C8" s="43">
         <f t="shared" si="1"/>
-        <v>7105.89589</v>
+        <v>7105.894795</v>
       </c>
       <c r="D8" s="45">
         <v>2643568.0</v>
@@ -795,7 +815,7 @@
       </c>
       <c r="F8" s="44">
         <f t="shared" si="3"/>
-        <v>0.01924545004</v>
+        <v>0.01924560724</v>
       </c>
       <c r="G8" s="45">
         <v>2650000.0</v>
@@ -811,7 +831,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="45">
         <v>3513254.0</v>
@@ -845,7 +865,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="45">
         <v>1799166.0</v>
@@ -879,7 +899,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11" s="45">
         <v>1727958.0</v>
@@ -913,7 +933,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="45">
         <v>2823895.0</v>
@@ -947,7 +967,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="45">
         <v>1665678.0</v>
@@ -981,7 +1001,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" s="45">
         <v>864575.0</v>
@@ -1015,7 +1035,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B15" s="45">
         <v>848430.0</v>
@@ -1049,14 +1069,14 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="45">
-        <v>2.0862129E7</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="46">
+        <v>2.08621289E7</v>
       </c>
       <c r="C16" s="43">
         <f t="shared" si="1"/>
-        <v>57156.51781</v>
+        <v>57156.51753</v>
       </c>
       <c r="D16" s="45">
         <v>2.1449867E7</v>
@@ -1067,7 +1087,7 @@
       </c>
       <c r="F16" s="44">
         <f t="shared" si="3"/>
-        <v>0.02817248422</v>
+        <v>0.02817248915</v>
       </c>
       <c r="G16" s="45">
         <v>2.0204E7</v>
@@ -1083,14 +1103,14 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B17" s="45">
-        <v>1.4374175E7</v>
+        <v>1.4303636E7</v>
       </c>
       <c r="C17" s="43">
         <f t="shared" si="1"/>
-        <v>39381.30137</v>
+        <v>39188.04384</v>
       </c>
       <c r="D17" s="45">
         <v>1.4989181E7</v>
@@ -1101,7 +1121,7 @@
       </c>
       <c r="F17" s="44">
         <f t="shared" si="3"/>
-        <v>0.0427854816</v>
+        <v>0.04792802334</v>
       </c>
       <c r="G17" s="45">
         <v>1.3242E7</v>
@@ -1117,7 +1137,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B18" s="45">
         <v>5158194.0</v>
@@ -1151,14 +1171,14 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" s="45">
-        <v>2973195.0</v>
+        <v>2973323.0</v>
       </c>
       <c r="C19" s="43">
         <f t="shared" si="1"/>
-        <v>8145.739726</v>
+        <v>8146.090411</v>
       </c>
       <c r="D19" s="45">
         <v>3235675.0</v>
@@ -1169,7 +1189,7 @@
       </c>
       <c r="F19" s="44">
         <f t="shared" si="3"/>
-        <v>0.0882821342</v>
+        <v>0.08823528423</v>
       </c>
       <c r="G19" s="45">
         <v>2453639.0</v>
@@ -1185,7 +1205,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" s="45">
         <v>4465253.0</v>
@@ -1219,7 +1239,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B21" s="45">
         <v>8631816.0</v>
@@ -1253,7 +1273,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B22" s="45">
         <v>877214.0</v>
@@ -1287,7 +1307,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B23" s="45">
         <v>540776.0</v>
@@ -1321,7 +1341,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" s="45">
         <v>915945.0</v>
@@ -1355,7 +1375,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" s="45">
         <v>3223221.0</v>
@@ -1389,7 +1409,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B26" s="45">
         <v>2526846.0</v>
@@ -1423,14 +1443,14 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="45">
-        <v>4290520.0</v>
+        <v>66</v>
+      </c>
+      <c r="B27" s="46">
+        <v>4290520.1</v>
       </c>
       <c r="C27" s="43">
         <f t="shared" si="1"/>
-        <v>11754.84932</v>
+        <v>11754.84959</v>
       </c>
       <c r="D27" s="45">
         <v>4666097.0</v>
@@ -1441,7 +1461,7 @@
       </c>
       <c r="F27" s="44">
         <f t="shared" si="3"/>
-        <v>0.08753647577</v>
+        <v>0.08753645042</v>
       </c>
       <c r="G27" s="45">
         <v>4419000.0</v>
@@ -1457,14 +1477,14 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="45">
-        <v>3777024.0</v>
+        <v>67</v>
+      </c>
+      <c r="B28" s="46">
+        <v>3777023.6</v>
       </c>
       <c r="C28" s="43">
         <f t="shared" si="1"/>
-        <v>10348.01096</v>
+        <v>10348.00986</v>
       </c>
       <c r="D28" s="45">
         <v>3855541.0</v>
@@ -1475,23 +1495,23 @@
       </c>
       <c r="F28" s="44">
         <f t="shared" si="3"/>
-        <v>0.02078805959</v>
+        <v>0.0207881677</v>
       </c>
       <c r="G28" s="45">
-        <v>3147209.0</v>
+        <v>3895148.0</v>
       </c>
       <c r="H28" s="43">
         <f t="shared" si="4"/>
-        <v>8622.490411</v>
+        <v>10671.63836</v>
       </c>
       <c r="I28" s="44">
         <f t="shared" si="5"/>
-        <v>0.2250667178</v>
+        <v>-0.01016829142</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B29" s="45">
         <v>4756852.0</v>
@@ -1512,20 +1532,20 @@
         <v>0.07230075689</v>
       </c>
       <c r="G29" s="45">
-        <v>4317155.0</v>
+        <v>5075000.0</v>
       </c>
       <c r="H29" s="43">
         <f t="shared" si="4"/>
-        <v>11827.82192</v>
+        <v>13904.10959</v>
       </c>
       <c r="I29" s="44">
         <f t="shared" si="5"/>
-        <v>0.1815132883</v>
+        <v>0.005079014778</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B30" s="45">
         <v>1189020.0</v>
@@ -1559,7 +1579,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" s="45">
         <v>524771.0</v>
@@ -1593,7 +1613,7 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B32" s="45">
         <v>1602003.0</v>
@@ -1627,7 +1647,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B33" s="45">
         <v>1.0440757E7</v>
@@ -1661,7 +1681,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="45">
         <v>3615171.0</v>
@@ -1695,7 +1715,7 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B35" s="45">
         <v>1603674.0</v>
@@ -1729,7 +1749,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B36" s="45">
         <v>1.1767621E7</v>
@@ -1767,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1783,254 +1803,270 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>42779.0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2016.0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="5">
+        <v>42828.0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6">
-        <v>42828.0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="5">
+        <v>42839.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
-        <v>2016.0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C4" s="9">
+        <v>2015.0</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="6">
-        <v>42839.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2015.0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>42853.0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="16">
         <v>2017.0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="20">
+        <v>42957.0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="25">
-        <v>42957.0</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="24">
+        <v>43061.0</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="29">
-        <v>43061.0</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="D7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C8" s="22">
+        <v>2017.0</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="24">
+        <v>43273.0</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C9" s="26">
+        <v>43221.0</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="24">
+        <v>43301.0</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26">
+        <v>43252.0</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="24">
+        <v>43332.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26">
+        <v>43282.0</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="24">
+        <v>43357.0</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="26">
+        <v>43313.0</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="24">
+        <v>43396.0</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="26">
+        <v>43344.0</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="20">
+        <v>43424.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="28">
+        <v>43374.0</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="28">
+        <v>43405.0</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="34">
+        <v>43480.0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="28">
+        <v>43435.0</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="34">
+        <v>43514.0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="28">
+        <v>43435.0</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="34">
+        <v>43560.0</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="38">
         <v>2017.0</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="29">
-        <v>43273.0</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="31">
-        <v>43221.0</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="29">
-        <v>43301.0</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="31">
-        <v>43252.0</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="29">
-        <v>43332.0</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="31">
-        <v>43282.0</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="29">
-        <v>43357.0</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="31">
-        <v>43313.0</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="29">
-        <v>43396.0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="31">
-        <v>43344.0</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="25">
-        <v>43424.0</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="33">
-        <v>43374.0</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="33">
-        <v>43405.0</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="37">
-        <v>43480.0</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="33">
-        <v>43435.0</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="37">
-        <v>43514.0</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="33">
-        <v>43435.0</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="34">
+        <v>43560.0</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="38">
+        <v>2018.0</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
